--- a/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_FALTAS_P1.xlsx
+++ b/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_FALTAS_P1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" tabRatio="890" firstSheet="1" activeTab="5"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="200">
   <si>
     <t>Schema</t>
   </si>
@@ -1196,6 +1196,33 @@
   </si>
   <si>
     <t>Preencher com o valor fixo 'AS'</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_TURMA</t>
+  </si>
+  <si>
+    <t>Preencher com nulo</t>
+  </si>
+  <si>
+    <t>CPF_PROFESSOR</t>
+  </si>
+  <si>
+    <t>COD_DISCIPLINA</t>
+  </si>
+  <si>
+    <t>COD_TURMA</t>
+  </si>
+  <si>
+    <t>DT_AUTORIZA_3</t>
+  </si>
+  <si>
+    <t>IND_AUTORIZACAO_3</t>
+  </si>
+  <si>
+    <t>VAL_HORA_AULA</t>
+  </si>
+  <si>
+    <t>Preencher com o valor fixo 1</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1374,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1381,6 +1408,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,7 +1787,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2057,6 +2090,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2066,15 +2117,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2114,14 +2156,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2129,9 +2168,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2162,15 +2198,66 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2189,60 +2276,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2253,58 +2286,61 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2474,7 +2510,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2497,14 +2533,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2547,7 +2583,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2570,14 +2606,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2950,28 +2986,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="121"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="119"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="41" t="s">
@@ -2980,17 +3016,17 @@
       <c r="C11" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122" t="s">
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="123"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="126"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="27" t="s">
@@ -2999,24 +3035,24 @@
       <c r="C12" s="26">
         <v>41239</v>
       </c>
-      <c r="D12" s="124" t="s">
+      <c r="D12" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="125"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="127" t="s">
+      <c r="E12" s="128"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="128"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="131"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="25"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="112"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="113"/>
       <c r="H13" s="114"/>
       <c r="I13" s="114"/>
@@ -3025,9 +3061,9 @@
     <row r="14" spans="2:10">
       <c r="B14" s="23"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
       <c r="G14" s="113"/>
       <c r="H14" s="114"/>
       <c r="I14" s="114"/>
@@ -3036,9 +3072,9 @@
     <row r="15" spans="2:10">
       <c r="B15" s="23"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
       <c r="G15" s="113"/>
       <c r="H15" s="114"/>
       <c r="I15" s="114"/>
@@ -3047,9 +3083,9 @@
     <row r="16" spans="2:10">
       <c r="B16" s="23"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
       <c r="G16" s="113"/>
       <c r="H16" s="114"/>
       <c r="I16" s="114"/>
@@ -3058,27 +3094,34 @@
     <row r="17" spans="2:10">
       <c r="B17" s="23"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="131"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="23"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="131"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3089,13 +3132,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3153,17 +3189,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="48" t="s">
@@ -3172,54 +3208,54 @@
       <c r="C7" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="78" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="78" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="49"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="78" t="s">
         <v>154</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="5"/>
@@ -3233,17 +3269,17 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
     </row>
     <row r="13" spans="2:10" ht="23.25" customHeight="1">
       <c r="B13" s="44" t="s">
@@ -3255,16 +3291,16 @@
       <c r="D13" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="141" t="s">
+      <c r="E13" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="143"/>
-      <c r="G13" s="141" t="s">
+      <c r="F13" s="144"/>
+      <c r="G13" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="144"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="1" t="s">
@@ -3272,23 +3308,23 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="1"/>
       <c r="C15" s="9"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="2"/>
@@ -3302,11 +3338,11 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B17" s="132" t="s">
+      <c r="B17" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="43" t="s">
@@ -3345,17 +3381,17 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="48" t="s">
@@ -3367,59 +3403,52 @@
       <c r="D23" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="136" t="s">
+      <c r="E23" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136" t="s">
+      <c r="F23" s="137"/>
+      <c r="G23" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="10"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="132"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="10"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="10"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:J24"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
@@ -3435,6 +3464,13 @@
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="D9:J9"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:J24"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3473,10 +3509,10 @@
   <dimension ref="B1:AJ62"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D14" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -3521,39 +3557,39 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161" t="s">
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="163" t="s">
+      <c r="O2" s="155"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -3980,30 +4016,30 @@
       </c>
       <c r="L9" s="86"/>
       <c r="M9" s="86"/>
-      <c r="N9" s="148" t="s">
+      <c r="N9" s="166" t="s">
         <v>187</v>
       </c>
       <c r="O9" s="65"/>
       <c r="P9" s="65"/>
-      <c r="Q9" s="150" t="s">
-        <v>94</v>
-      </c>
-      <c r="R9" s="152" t="s">
+      <c r="Q9" s="168" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9" s="170" t="s">
         <v>103</v>
       </c>
       <c r="S9" s="65"/>
-      <c r="T9" s="154" t="s">
+      <c r="T9" s="151" t="s">
         <v>141</v>
       </c>
       <c r="U9" s="86"/>
-      <c r="V9" s="156" t="s">
+      <c r="V9" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="W9" s="156"/>
-      <c r="X9" s="154" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y9" s="156"/>
+      <c r="W9" s="149"/>
+      <c r="X9" s="151" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" s="149"/>
       <c r="Z9" s="146"/>
       <c r="AA9" s="146"/>
       <c r="AB9" s="146"/>
@@ -4041,18 +4077,18 @@
       <c r="K10" s="86"/>
       <c r="L10" s="86"/>
       <c r="M10" s="86"/>
-      <c r="N10" s="149"/>
+      <c r="N10" s="167"/>
       <c r="O10" s="65"/>
       <c r="P10" s="65"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="153"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="171"/>
       <c r="S10" s="65"/>
-      <c r="T10" s="155"/>
+      <c r="T10" s="152"/>
       <c r="U10" s="86"/>
-      <c r="V10" s="157"/>
-      <c r="W10" s="157"/>
-      <c r="X10" s="155"/>
-      <c r="Y10" s="157"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="150"/>
       <c r="Z10" s="147"/>
       <c r="AA10" s="147"/>
       <c r="AB10" s="147"/>
@@ -4092,28 +4128,28 @@
       </c>
       <c r="L11" s="86"/>
       <c r="M11" s="86"/>
-      <c r="N11" s="148" t="s">
+      <c r="N11" s="166" t="s">
         <v>186</v>
       </c>
       <c r="O11" s="65"/>
       <c r="P11" s="87"/>
-      <c r="Q11" s="150" t="s">
-        <v>94</v>
-      </c>
-      <c r="R11" s="152" t="s">
+      <c r="Q11" s="168" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11" s="170" t="s">
         <v>103</v>
       </c>
       <c r="S11" s="65"/>
-      <c r="T11" s="154" t="s">
+      <c r="T11" s="151" t="s">
         <v>138</v>
       </c>
       <c r="U11" s="86"/>
-      <c r="V11" s="156"/>
-      <c r="W11" s="156"/>
-      <c r="X11" s="154" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y11" s="156"/>
+      <c r="V11" s="149"/>
+      <c r="W11" s="149"/>
+      <c r="X11" s="151" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y11" s="149"/>
       <c r="Z11" s="146"/>
       <c r="AA11" s="146"/>
       <c r="AB11" s="146"/>
@@ -4151,18 +4187,18 @@
       <c r="K12" s="86"/>
       <c r="L12" s="86"/>
       <c r="M12" s="86"/>
-      <c r="N12" s="149"/>
+      <c r="N12" s="167"/>
       <c r="O12" s="65"/>
       <c r="P12" s="87"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="153"/>
+      <c r="Q12" s="169"/>
+      <c r="R12" s="171"/>
       <c r="S12" s="65"/>
-      <c r="T12" s="155"/>
+      <c r="T12" s="152"/>
       <c r="U12" s="86"/>
-      <c r="V12" s="157"/>
-      <c r="W12" s="157"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="157"/>
+      <c r="V12" s="150"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="150"/>
       <c r="Z12" s="147"/>
       <c r="AA12" s="147"/>
       <c r="AB12" s="147"/>
@@ -5766,36 +5802,36 @@
       </c>
       <c r="L37" s="65"/>
       <c r="M37" s="65"/>
-      <c r="N37" s="165" t="s">
+      <c r="N37" s="159" t="s">
         <v>104</v>
       </c>
       <c r="O37" s="90"/>
       <c r="P37" s="91"/>
-      <c r="Q37" s="167" t="s">
-        <v>94</v>
-      </c>
-      <c r="R37" s="167" t="s">
+      <c r="Q37" s="161" t="s">
+        <v>94</v>
+      </c>
+      <c r="R37" s="161" t="s">
         <v>103</v>
       </c>
       <c r="S37" s="92"/>
-      <c r="T37" s="167" t="s">
+      <c r="T37" s="161" t="s">
         <v>93</v>
       </c>
       <c r="U37" s="92"/>
-      <c r="V37" s="167" t="s">
+      <c r="V37" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="W37" s="167"/>
-      <c r="X37" s="167" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y37" s="169">
+      <c r="W37" s="161"/>
+      <c r="X37" s="161" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y37" s="163">
         <v>15</v>
       </c>
-      <c r="Z37" s="167"/>
-      <c r="AA37" s="167"/>
-      <c r="AB37" s="158"/>
-      <c r="AC37" s="158"/>
+      <c r="Z37" s="161"/>
+      <c r="AA37" s="161"/>
+      <c r="AB37" s="148"/>
+      <c r="AC37" s="148"/>
       <c r="AD37" s="69"/>
       <c r="AE37" s="69"/>
       <c r="AF37" s="69"/>
@@ -5831,22 +5867,22 @@
       </c>
       <c r="L38" s="65"/>
       <c r="M38" s="65"/>
-      <c r="N38" s="165"/>
+      <c r="N38" s="159"/>
       <c r="O38" s="85"/>
       <c r="P38" s="85"/>
-      <c r="Q38" s="167"/>
-      <c r="R38" s="167"/>
+      <c r="Q38" s="161"/>
+      <c r="R38" s="161"/>
       <c r="S38" s="93"/>
-      <c r="T38" s="167"/>
+      <c r="T38" s="161"/>
       <c r="U38" s="93"/>
-      <c r="V38" s="167"/>
-      <c r="W38" s="167"/>
-      <c r="X38" s="167"/>
-      <c r="Y38" s="170"/>
-      <c r="Z38" s="167"/>
-      <c r="AA38" s="167"/>
-      <c r="AB38" s="158"/>
-      <c r="AC38" s="158"/>
+      <c r="V38" s="161"/>
+      <c r="W38" s="161"/>
+      <c r="X38" s="161"/>
+      <c r="Y38" s="164"/>
+      <c r="Z38" s="161"/>
+      <c r="AA38" s="161"/>
+      <c r="AB38" s="148"/>
+      <c r="AC38" s="148"/>
       <c r="AD38" s="69"/>
       <c r="AE38" s="69"/>
       <c r="AF38" s="69"/>
@@ -5876,22 +5912,22 @@
       </c>
       <c r="L39" s="65"/>
       <c r="M39" s="65"/>
-      <c r="N39" s="165"/>
+      <c r="N39" s="159"/>
       <c r="O39" s="85"/>
       <c r="P39" s="85"/>
-      <c r="Q39" s="167"/>
-      <c r="R39" s="167"/>
+      <c r="Q39" s="161"/>
+      <c r="R39" s="161"/>
       <c r="S39" s="93"/>
-      <c r="T39" s="167"/>
+      <c r="T39" s="161"/>
       <c r="U39" s="93"/>
-      <c r="V39" s="167"/>
-      <c r="W39" s="167"/>
-      <c r="X39" s="167"/>
-      <c r="Y39" s="170"/>
-      <c r="Z39" s="167"/>
-      <c r="AA39" s="167"/>
-      <c r="AB39" s="158"/>
-      <c r="AC39" s="158"/>
+      <c r="V39" s="161"/>
+      <c r="W39" s="161"/>
+      <c r="X39" s="161"/>
+      <c r="Y39" s="164"/>
+      <c r="Z39" s="161"/>
+      <c r="AA39" s="161"/>
+      <c r="AB39" s="148"/>
+      <c r="AC39" s="148"/>
       <c r="AD39" s="69"/>
       <c r="AE39" s="69"/>
       <c r="AF39" s="69"/>
@@ -5921,22 +5957,22 @@
       </c>
       <c r="L40" s="65"/>
       <c r="M40" s="65"/>
-      <c r="N40" s="165"/>
+      <c r="N40" s="159"/>
       <c r="O40" s="85"/>
       <c r="P40" s="85"/>
-      <c r="Q40" s="167"/>
-      <c r="R40" s="167"/>
+      <c r="Q40" s="161"/>
+      <c r="R40" s="161"/>
       <c r="S40" s="93"/>
-      <c r="T40" s="167"/>
+      <c r="T40" s="161"/>
       <c r="U40" s="93"/>
-      <c r="V40" s="167"/>
-      <c r="W40" s="167"/>
-      <c r="X40" s="167"/>
-      <c r="Y40" s="170"/>
-      <c r="Z40" s="167"/>
-      <c r="AA40" s="167"/>
-      <c r="AB40" s="158"/>
-      <c r="AC40" s="158"/>
+      <c r="V40" s="161"/>
+      <c r="W40" s="161"/>
+      <c r="X40" s="161"/>
+      <c r="Y40" s="164"/>
+      <c r="Z40" s="161"/>
+      <c r="AA40" s="161"/>
+      <c r="AB40" s="148"/>
+      <c r="AC40" s="148"/>
       <c r="AD40" s="69"/>
       <c r="AE40" s="69"/>
       <c r="AF40" s="69"/>
@@ -5972,22 +6008,22 @@
       </c>
       <c r="L41" s="65"/>
       <c r="M41" s="65"/>
-      <c r="N41" s="165"/>
+      <c r="N41" s="159"/>
       <c r="O41" s="85"/>
       <c r="P41" s="85"/>
-      <c r="Q41" s="167"/>
-      <c r="R41" s="167"/>
+      <c r="Q41" s="161"/>
+      <c r="R41" s="161"/>
       <c r="S41" s="93"/>
-      <c r="T41" s="167"/>
+      <c r="T41" s="161"/>
       <c r="U41" s="93"/>
-      <c r="V41" s="167"/>
-      <c r="W41" s="167"/>
-      <c r="X41" s="167"/>
-      <c r="Y41" s="170"/>
-      <c r="Z41" s="167"/>
-      <c r="AA41" s="167"/>
-      <c r="AB41" s="158"/>
-      <c r="AC41" s="158"/>
+      <c r="V41" s="161"/>
+      <c r="W41" s="161"/>
+      <c r="X41" s="161"/>
+      <c r="Y41" s="164"/>
+      <c r="Z41" s="161"/>
+      <c r="AA41" s="161"/>
+      <c r="AB41" s="148"/>
+      <c r="AC41" s="148"/>
       <c r="AD41" s="69"/>
       <c r="AE41" s="69"/>
       <c r="AF41" s="69"/>
@@ -6017,20 +6053,20 @@
       </c>
       <c r="L42" s="65"/>
       <c r="M42" s="65"/>
-      <c r="N42" s="165"/>
-      <c r="Q42" s="167"/>
-      <c r="R42" s="167"/>
+      <c r="N42" s="159"/>
+      <c r="Q42" s="161"/>
+      <c r="R42" s="161"/>
       <c r="S42" s="94"/>
-      <c r="T42" s="167"/>
+      <c r="T42" s="161"/>
       <c r="U42" s="94"/>
-      <c r="V42" s="167"/>
-      <c r="W42" s="167"/>
-      <c r="X42" s="167"/>
-      <c r="Y42" s="170"/>
-      <c r="Z42" s="167"/>
-      <c r="AA42" s="167"/>
-      <c r="AB42" s="158"/>
-      <c r="AC42" s="158"/>
+      <c r="V42" s="161"/>
+      <c r="W42" s="161"/>
+      <c r="X42" s="161"/>
+      <c r="Y42" s="164"/>
+      <c r="Z42" s="161"/>
+      <c r="AA42" s="161"/>
+      <c r="AB42" s="148"/>
+      <c r="AC42" s="148"/>
     </row>
     <row r="43" spans="2:36">
       <c r="B43" s="96"/>
@@ -6051,20 +6087,20 @@
       <c r="K43" s="63"/>
       <c r="L43" s="65"/>
       <c r="M43" s="65"/>
-      <c r="N43" s="165"/>
-      <c r="Q43" s="167"/>
-      <c r="R43" s="167"/>
+      <c r="N43" s="159"/>
+      <c r="Q43" s="161"/>
+      <c r="R43" s="161"/>
       <c r="S43" s="94"/>
-      <c r="T43" s="167"/>
+      <c r="T43" s="161"/>
       <c r="U43" s="94"/>
-      <c r="V43" s="167"/>
-      <c r="W43" s="167"/>
-      <c r="X43" s="167"/>
-      <c r="Y43" s="170"/>
-      <c r="Z43" s="167"/>
-      <c r="AA43" s="167"/>
-      <c r="AB43" s="158"/>
-      <c r="AC43" s="158"/>
+      <c r="V43" s="161"/>
+      <c r="W43" s="161"/>
+      <c r="X43" s="161"/>
+      <c r="Y43" s="164"/>
+      <c r="Z43" s="161"/>
+      <c r="AA43" s="161"/>
+      <c r="AB43" s="148"/>
+      <c r="AC43" s="148"/>
     </row>
     <row r="44" spans="2:36">
       <c r="B44" s="89" t="s">
@@ -6093,20 +6129,20 @@
       </c>
       <c r="L44" s="88"/>
       <c r="M44" s="88"/>
-      <c r="N44" s="166"/>
-      <c r="Q44" s="168"/>
-      <c r="R44" s="168"/>
+      <c r="N44" s="160"/>
+      <c r="Q44" s="162"/>
+      <c r="R44" s="162"/>
       <c r="S44" s="94"/>
-      <c r="T44" s="167"/>
+      <c r="T44" s="161"/>
       <c r="U44" s="94"/>
-      <c r="V44" s="167"/>
-      <c r="W44" s="167"/>
-      <c r="X44" s="167"/>
-      <c r="Y44" s="171"/>
-      <c r="Z44" s="167"/>
-      <c r="AA44" s="167"/>
-      <c r="AB44" s="158"/>
-      <c r="AC44" s="158"/>
+      <c r="V44" s="161"/>
+      <c r="W44" s="161"/>
+      <c r="X44" s="161"/>
+      <c r="Y44" s="165"/>
+      <c r="Z44" s="161"/>
+      <c r="AA44" s="161"/>
+      <c r="AB44" s="148"/>
+      <c r="AC44" s="148"/>
     </row>
     <row r="45" spans="2:36">
       <c r="B45" s="102"/>
@@ -6300,13 +6336,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AB37:AB44"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="AC37:AC44"/>
@@ -6323,22 +6368,13 @@
     <mergeCell ref="Y37:Y44"/>
     <mergeCell ref="Z37:Z44"/>
     <mergeCell ref="AA37:AA44"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AB37:AB44"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -6355,10 +6391,10 @@
   <dimension ref="B1:AJ60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -6402,39 +6438,39 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161" t="s">
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="163" t="s">
+      <c r="O2" s="155"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -6790,7 +6826,7 @@
       </c>
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
-      <c r="N8" s="178" t="s">
+      <c r="N8" s="181" t="s">
         <v>187</v>
       </c>
       <c r="O8" s="66"/>
@@ -6801,17 +6837,17 @@
       <c r="R8" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="S8" s="180"/>
-      <c r="T8" s="178" t="s">
+      <c r="S8" s="175"/>
+      <c r="T8" s="181" t="s">
         <v>141</v>
       </c>
       <c r="U8" s="63"/>
-      <c r="V8" s="175" t="s">
+      <c r="V8" s="183" t="s">
         <v>100</v>
       </c>
       <c r="W8" s="185"/>
-      <c r="X8" s="187"/>
-      <c r="Y8" s="189">
+      <c r="X8" s="178"/>
+      <c r="Y8" s="187">
         <v>10</v>
       </c>
       <c r="Z8" s="63"/>
@@ -6853,7 +6889,7 @@
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="63"/>
-      <c r="N9" s="179"/>
+      <c r="N9" s="182"/>
       <c r="O9" s="66"/>
       <c r="P9" s="67"/>
       <c r="Q9" s="61" t="s">
@@ -6862,13 +6898,13 @@
       <c r="R9" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="S9" s="181"/>
-      <c r="T9" s="179"/>
+      <c r="S9" s="177"/>
+      <c r="T9" s="182"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="177"/>
+      <c r="V9" s="184"/>
       <c r="W9" s="186"/>
-      <c r="X9" s="188"/>
-      <c r="Y9" s="190"/>
+      <c r="X9" s="180"/>
+      <c r="Y9" s="188"/>
       <c r="Z9" s="63"/>
       <c r="AA9" s="63"/>
       <c r="AB9" s="63"/>
@@ -6908,7 +6944,7 @@
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="63"/>
-      <c r="N10" s="178" t="s">
+      <c r="N10" s="181" t="s">
         <v>186</v>
       </c>
       <c r="O10" s="66"/>
@@ -6919,17 +6955,17 @@
       <c r="R10" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="S10" s="180"/>
-      <c r="T10" s="178" t="s">
+      <c r="S10" s="175"/>
+      <c r="T10" s="181" t="s">
         <v>178</v>
       </c>
       <c r="U10" s="63"/>
-      <c r="V10" s="175" t="s">
+      <c r="V10" s="183" t="s">
         <v>100</v>
       </c>
       <c r="W10" s="185"/>
-      <c r="X10" s="187"/>
-      <c r="Y10" s="189">
+      <c r="X10" s="178"/>
+      <c r="Y10" s="187">
         <v>10</v>
       </c>
       <c r="Z10" s="63"/>
@@ -6971,7 +7007,7 @@
       </c>
       <c r="L11" s="63"/>
       <c r="M11" s="63"/>
-      <c r="N11" s="179"/>
+      <c r="N11" s="182"/>
       <c r="O11" s="66"/>
       <c r="P11" s="67"/>
       <c r="Q11" s="61" t="s">
@@ -6980,13 +7016,13 @@
       <c r="R11" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="S11" s="181"/>
-      <c r="T11" s="179"/>
+      <c r="S11" s="177"/>
+      <c r="T11" s="182"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="177"/>
+      <c r="V11" s="184"/>
       <c r="W11" s="186"/>
-      <c r="X11" s="188"/>
-      <c r="Y11" s="190"/>
+      <c r="X11" s="180"/>
+      <c r="Y11" s="188"/>
       <c r="Z11" s="63"/>
       <c r="AA11" s="63"/>
       <c r="AB11" s="63"/>
@@ -8601,25 +8637,25 @@
       </c>
       <c r="L37" s="63"/>
       <c r="M37" s="63"/>
-      <c r="N37" s="175" t="s">
+      <c r="N37" s="183" t="s">
         <v>104</v>
       </c>
       <c r="O37" s="172"/>
       <c r="P37" s="172"/>
-      <c r="Q37" s="182" t="s">
-        <v>94</v>
-      </c>
-      <c r="R37" s="182" t="s">
+      <c r="Q37" s="189" t="s">
+        <v>94</v>
+      </c>
+      <c r="R37" s="189" t="s">
         <v>103</v>
       </c>
       <c r="S37" s="172"/>
-      <c r="T37" s="167" t="s">
+      <c r="T37" s="161" t="s">
         <v>93</v>
       </c>
       <c r="U37" s="63"/>
-      <c r="V37" s="180"/>
-      <c r="W37" s="187"/>
-      <c r="X37" s="187"/>
+      <c r="V37" s="175"/>
+      <c r="W37" s="178"/>
+      <c r="X37" s="178"/>
       <c r="Y37" s="172"/>
       <c r="Z37" s="172"/>
       <c r="AA37" s="172"/>
@@ -8660,17 +8696,17 @@
       </c>
       <c r="L38" s="63"/>
       <c r="M38" s="63"/>
-      <c r="N38" s="176"/>
+      <c r="N38" s="192"/>
       <c r="O38" s="173"/>
       <c r="P38" s="173"/>
-      <c r="Q38" s="183"/>
-      <c r="R38" s="183"/>
+      <c r="Q38" s="190"/>
+      <c r="R38" s="190"/>
       <c r="S38" s="173"/>
-      <c r="T38" s="167"/>
+      <c r="T38" s="161"/>
       <c r="U38" s="63"/>
-      <c r="V38" s="191"/>
-      <c r="W38" s="192"/>
-      <c r="X38" s="192"/>
+      <c r="V38" s="176"/>
+      <c r="W38" s="179"/>
+      <c r="X38" s="179"/>
       <c r="Y38" s="173"/>
       <c r="Z38" s="173"/>
       <c r="AA38" s="173"/>
@@ -8705,17 +8741,17 @@
       </c>
       <c r="L39" s="63"/>
       <c r="M39" s="63"/>
-      <c r="N39" s="176"/>
+      <c r="N39" s="192"/>
       <c r="O39" s="173"/>
       <c r="P39" s="173"/>
-      <c r="Q39" s="183"/>
-      <c r="R39" s="183"/>
+      <c r="Q39" s="190"/>
+      <c r="R39" s="190"/>
       <c r="S39" s="173"/>
-      <c r="T39" s="167"/>
+      <c r="T39" s="161"/>
       <c r="U39" s="63"/>
-      <c r="V39" s="191"/>
-      <c r="W39" s="192"/>
-      <c r="X39" s="192"/>
+      <c r="V39" s="176"/>
+      <c r="W39" s="179"/>
+      <c r="X39" s="179"/>
       <c r="Y39" s="173"/>
       <c r="Z39" s="173"/>
       <c r="AA39" s="173"/>
@@ -8752,17 +8788,17 @@
       </c>
       <c r="L40" s="63"/>
       <c r="M40" s="63"/>
-      <c r="N40" s="176"/>
+      <c r="N40" s="192"/>
       <c r="O40" s="173"/>
       <c r="P40" s="173"/>
-      <c r="Q40" s="183"/>
-      <c r="R40" s="183"/>
+      <c r="Q40" s="190"/>
+      <c r="R40" s="190"/>
       <c r="S40" s="173"/>
-      <c r="T40" s="167"/>
+      <c r="T40" s="161"/>
       <c r="U40" s="63"/>
-      <c r="V40" s="191"/>
-      <c r="W40" s="192"/>
-      <c r="X40" s="192"/>
+      <c r="V40" s="176"/>
+      <c r="W40" s="179"/>
+      <c r="X40" s="179"/>
       <c r="Y40" s="173"/>
       <c r="Z40" s="173"/>
       <c r="AA40" s="173"/>
@@ -8803,17 +8839,17 @@
       </c>
       <c r="L41" s="63"/>
       <c r="M41" s="63"/>
-      <c r="N41" s="176"/>
+      <c r="N41" s="192"/>
       <c r="O41" s="173"/>
       <c r="P41" s="173"/>
-      <c r="Q41" s="183"/>
-      <c r="R41" s="183"/>
+      <c r="Q41" s="190"/>
+      <c r="R41" s="190"/>
       <c r="S41" s="173"/>
-      <c r="T41" s="167"/>
+      <c r="T41" s="161"/>
       <c r="U41" s="74"/>
-      <c r="V41" s="191"/>
-      <c r="W41" s="192"/>
-      <c r="X41" s="192"/>
+      <c r="V41" s="176"/>
+      <c r="W41" s="179"/>
+      <c r="X41" s="179"/>
       <c r="Y41" s="173"/>
       <c r="Z41" s="173"/>
       <c r="AA41" s="173"/>
@@ -8848,17 +8884,17 @@
       </c>
       <c r="L42" s="63"/>
       <c r="M42" s="63"/>
-      <c r="N42" s="176"/>
+      <c r="N42" s="192"/>
       <c r="O42" s="173"/>
       <c r="P42" s="173"/>
-      <c r="Q42" s="183"/>
-      <c r="R42" s="183"/>
+      <c r="Q42" s="190"/>
+      <c r="R42" s="190"/>
       <c r="S42" s="173"/>
-      <c r="T42" s="167"/>
+      <c r="T42" s="161"/>
       <c r="U42" s="74"/>
-      <c r="V42" s="191"/>
-      <c r="W42" s="192"/>
-      <c r="X42" s="192"/>
+      <c r="V42" s="176"/>
+      <c r="W42" s="179"/>
+      <c r="X42" s="179"/>
       <c r="Y42" s="173"/>
       <c r="Z42" s="173"/>
       <c r="AA42" s="173"/>
@@ -8891,17 +8927,17 @@
       <c r="K43" s="63"/>
       <c r="L43" s="63"/>
       <c r="M43" s="63"/>
-      <c r="N43" s="176"/>
+      <c r="N43" s="192"/>
       <c r="O43" s="173"/>
       <c r="P43" s="173"/>
-      <c r="Q43" s="183"/>
-      <c r="R43" s="183"/>
+      <c r="Q43" s="190"/>
+      <c r="R43" s="190"/>
       <c r="S43" s="173"/>
-      <c r="T43" s="167"/>
+      <c r="T43" s="161"/>
       <c r="U43" s="74"/>
-      <c r="V43" s="191"/>
-      <c r="W43" s="192"/>
-      <c r="X43" s="192"/>
+      <c r="V43" s="176"/>
+      <c r="W43" s="179"/>
+      <c r="X43" s="179"/>
       <c r="Y43" s="173"/>
       <c r="Z43" s="173"/>
       <c r="AA43" s="173"/>
@@ -8942,17 +8978,17 @@
       </c>
       <c r="L44" s="63"/>
       <c r="M44" s="63"/>
-      <c r="N44" s="177"/>
+      <c r="N44" s="184"/>
       <c r="O44" s="174"/>
       <c r="P44" s="174"/>
-      <c r="Q44" s="184"/>
-      <c r="R44" s="184"/>
+      <c r="Q44" s="191"/>
+      <c r="R44" s="191"/>
       <c r="S44" s="174"/>
-      <c r="T44" s="167"/>
+      <c r="T44" s="161"/>
       <c r="U44" s="63"/>
-      <c r="V44" s="181"/>
-      <c r="W44" s="188"/>
-      <c r="X44" s="188"/>
+      <c r="V44" s="177"/>
+      <c r="W44" s="180"/>
+      <c r="X44" s="180"/>
       <c r="Y44" s="174"/>
       <c r="Z44" s="174"/>
       <c r="AA44" s="174"/>
@@ -9224,14 +9260,17 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AA37:AA44"/>
-    <mergeCell ref="AB37:AB44"/>
-    <mergeCell ref="AC37:AC44"/>
-    <mergeCell ref="V37:V44"/>
-    <mergeCell ref="W37:W44"/>
-    <mergeCell ref="X37:X44"/>
-    <mergeCell ref="Y37:Y44"/>
-    <mergeCell ref="Z37:Z44"/>
+    <mergeCell ref="O37:O44"/>
+    <mergeCell ref="N37:N44"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T37:T44"/>
+    <mergeCell ref="S37:S44"/>
+    <mergeCell ref="R37:R44"/>
+    <mergeCell ref="Q37:Q44"/>
+    <mergeCell ref="P37:P44"/>
     <mergeCell ref="T10:T11"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="B2:M2"/>
@@ -9245,17 +9284,14 @@
     <mergeCell ref="W10:W11"/>
     <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="T37:T44"/>
-    <mergeCell ref="S37:S44"/>
-    <mergeCell ref="R37:R44"/>
-    <mergeCell ref="Q37:Q44"/>
-    <mergeCell ref="P37:P44"/>
-    <mergeCell ref="O37:O44"/>
-    <mergeCell ref="N37:N44"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="AA37:AA44"/>
+    <mergeCell ref="AB37:AB44"/>
+    <mergeCell ref="AC37:AC44"/>
+    <mergeCell ref="V37:V44"/>
+    <mergeCell ref="W37:W44"/>
+    <mergeCell ref="X37:X44"/>
+    <mergeCell ref="Y37:Y44"/>
+    <mergeCell ref="Z37:Z44"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -9321,39 +9357,39 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161" t="s">
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="163" t="s">
+      <c r="O2" s="155"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -9500,7 +9536,7 @@
         <v>154</v>
       </c>
       <c r="E5" s="65"/>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="193" t="s">
         <v>86</v>
       </c>
       <c r="G5" s="63"/>
@@ -9563,7 +9599,7 @@
         <v>154</v>
       </c>
       <c r="E6" s="64"/>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="193" t="s">
         <v>87</v>
       </c>
       <c r="G6" s="63"/>
@@ -9626,7 +9662,7 @@
         <v>154</v>
       </c>
       <c r="E7" s="65"/>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="193" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="63"/>
@@ -9689,7 +9725,7 @@
         <v>154</v>
       </c>
       <c r="E8" s="64"/>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="193" t="s">
         <v>78</v>
       </c>
       <c r="G8" s="63"/>
@@ -9752,7 +9788,7 @@
         <v>154</v>
       </c>
       <c r="E9" s="64"/>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="193" t="s">
         <v>150</v>
       </c>
       <c r="G9" s="63"/>
@@ -9815,7 +9851,7 @@
         <v>154</v>
       </c>
       <c r="E10" s="65"/>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="193" t="s">
         <v>122</v>
       </c>
       <c r="G10" s="63"/>
@@ -9882,7 +9918,7 @@
         <v>154</v>
       </c>
       <c r="E11" s="64"/>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="193" t="s">
         <v>123</v>
       </c>
       <c r="G11" s="63"/>
@@ -9945,7 +9981,7 @@
         <v>154</v>
       </c>
       <c r="E12" s="64"/>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="193" t="s">
         <v>124</v>
       </c>
       <c r="G12" s="63"/>
@@ -10008,7 +10044,7 @@
         <v>154</v>
       </c>
       <c r="E13" s="64"/>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="193" t="s">
         <v>125</v>
       </c>
       <c r="G13" s="63"/>
@@ -10071,7 +10107,7 @@
         <v>154</v>
       </c>
       <c r="E14" s="64"/>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="193" t="s">
         <v>126</v>
       </c>
       <c r="G14" s="63"/>
@@ -10134,7 +10170,7 @@
         <v>154</v>
       </c>
       <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="193" t="s">
         <v>127</v>
       </c>
       <c r="G15" s="63"/>
@@ -10197,7 +10233,7 @@
         <v>154</v>
       </c>
       <c r="E16" s="64"/>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="193" t="s">
         <v>128</v>
       </c>
       <c r="G16" s="63"/>
@@ -10323,7 +10359,7 @@
         <v>154</v>
       </c>
       <c r="E18" s="64"/>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="193" t="s">
         <v>152</v>
       </c>
       <c r="G18" s="63"/>
@@ -10386,7 +10422,7 @@
         <v>154</v>
       </c>
       <c r="E19" s="65"/>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="193" t="s">
         <v>144</v>
       </c>
       <c r="G19" s="63"/>
@@ -10512,7 +10548,7 @@
         <v>154</v>
       </c>
       <c r="E21" s="65"/>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="193" t="s">
         <v>151</v>
       </c>
       <c r="G21" s="63"/>
@@ -10732,34 +10768,20 @@
       <c r="AJ24" s="70"/>
     </row>
     <row r="25" spans="2:36">
-      <c r="B25" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="J25" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="K25" s="63">
-        <v>1</v>
-      </c>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
       <c r="N25" s="60" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="O25" s="66"/>
       <c r="P25" s="67"/>
@@ -10791,34 +10813,20 @@
       <c r="AJ25" s="70"/>
     </row>
     <row r="26" spans="2:36">
-      <c r="B26" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="J26" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="K26" s="63">
-        <v>1</v>
-      </c>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
       <c r="N26" s="60" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="O26" s="66"/>
       <c r="P26" s="67"/>
@@ -10850,34 +10858,20 @@
       <c r="AJ26" s="70"/>
     </row>
     <row r="27" spans="2:36">
-      <c r="B27" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="J27" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="K27" s="63">
-        <v>1</v>
-      </c>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
       <c r="N27" s="60" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="O27" s="66"/>
       <c r="P27" s="67"/>
@@ -10909,34 +10903,20 @@
       <c r="AJ27" s="70"/>
     </row>
     <row r="28" spans="2:36">
-      <c r="B28" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="J28" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="K28" s="63">
-        <v>10</v>
-      </c>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
       <c r="N28" s="60" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="O28" s="66"/>
       <c r="P28" s="67"/>
@@ -10968,34 +10948,20 @@
       <c r="AJ28" s="70"/>
     </row>
     <row r="29" spans="2:36">
-      <c r="B29" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="J29" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="K29" s="63">
-        <v>1</v>
-      </c>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
       <c r="N29" s="60" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="O29" s="66"/>
       <c r="P29" s="67"/>
@@ -11027,34 +10993,20 @@
       <c r="AJ29" s="70"/>
     </row>
     <row r="30" spans="2:36">
-      <c r="B30" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="J30" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="K30" s="63">
-        <v>1</v>
-      </c>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
       <c r="N30" s="60" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="O30" s="66"/>
       <c r="P30" s="67"/>
@@ -11090,7 +11042,9 @@
       <c r="C31" s="65"/>
       <c r="D31" s="64"/>
       <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
+      <c r="F31" s="64" t="s">
+        <v>89</v>
+      </c>
       <c r="G31" s="63"/>
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
@@ -11127,7 +11081,9 @@
       <c r="C32" s="65"/>
       <c r="D32" s="64"/>
       <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
+      <c r="F32" s="64" t="s">
+        <v>191</v>
+      </c>
       <c r="G32" s="63"/>
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
@@ -11164,7 +11120,9 @@
       <c r="C33" s="65"/>
       <c r="D33" s="64"/>
       <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
+      <c r="F33" s="64" t="s">
+        <v>88</v>
+      </c>
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
@@ -11201,7 +11159,9 @@
       <c r="C34" s="65"/>
       <c r="D34" s="64"/>
       <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
+      <c r="F34" s="64" t="s">
+        <v>193</v>
+      </c>
       <c r="G34" s="63"/>
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
@@ -11238,7 +11198,9 @@
       <c r="C35" s="65"/>
       <c r="D35" s="64"/>
       <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
+      <c r="F35" s="64" t="s">
+        <v>194</v>
+      </c>
       <c r="G35" s="63"/>
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
@@ -11275,7 +11237,9 @@
       <c r="C36" s="65"/>
       <c r="D36" s="64"/>
       <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
+      <c r="F36" s="64" t="s">
+        <v>195</v>
+      </c>
       <c r="G36" s="63"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
@@ -11312,7 +11276,9 @@
       <c r="C37" s="63"/>
       <c r="D37" s="64"/>
       <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
+      <c r="F37" s="64" t="s">
+        <v>196</v>
+      </c>
       <c r="G37" s="63"/>
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
@@ -11349,7 +11315,9 @@
       <c r="C38" s="65"/>
       <c r="D38" s="64"/>
       <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
+      <c r="F38" s="64" t="s">
+        <v>197</v>
+      </c>
       <c r="G38" s="63"/>
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
@@ -11382,25 +11350,29 @@
       <c r="AJ38" s="70"/>
     </row>
     <row r="39" spans="2:36">
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="76"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="98"/>
+      <c r="M39" s="98"/>
+      <c r="N39" s="76" t="s">
+        <v>189</v>
+      </c>
       <c r="O39" s="66"/>
       <c r="P39" s="67"/>
       <c r="Q39" s="62"/>
       <c r="R39" s="68"/>
       <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
+      <c r="T39" s="74" t="s">
+        <v>181</v>
+      </c>
       <c r="U39" s="63"/>
       <c r="V39" s="68"/>
       <c r="W39" s="58"/>
@@ -11419,25 +11391,29 @@
       <c r="AJ39" s="70"/>
     </row>
     <row r="40" spans="2:36">
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="73"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="98"/>
+      <c r="N40" s="73" t="s">
+        <v>199</v>
+      </c>
       <c r="O40" s="66"/>
       <c r="P40" s="67"/>
       <c r="Q40" s="61"/>
       <c r="R40" s="66"/>
       <c r="S40" s="66"/>
-      <c r="T40" s="66"/>
+      <c r="T40" s="66" t="s">
+        <v>198</v>
+      </c>
       <c r="U40" s="63"/>
       <c r="V40" s="68"/>
       <c r="W40" s="60"/>
@@ -11460,7 +11436,9 @@
       <c r="C41" s="65"/>
       <c r="D41" s="64"/>
       <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
+      <c r="F41" s="64" t="s">
+        <v>175</v>
+      </c>
       <c r="G41" s="63"/>
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
@@ -12729,15 +12707,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -12786,25 +12755,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12819,15 +12789,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12840,4 +12810,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>